--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/unityverseTeam2_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDF9931-37D1-164C-AD2D-63E2831DFB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591776BC-E567-7547-A49F-5375E3F0249B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="2600" windowWidth="28040" windowHeight="17440" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
+    <workbookView xWindow="2600" yWindow="2320" windowWidth="28040" windowHeight="17440" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +518,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
